--- a/docs/data/spi_global_rankings_intl.xlsx
+++ b/docs/data/spi_global_rankings_intl.xlsx
@@ -717,7 +717,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -738,9 +737,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -955,9 +952,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
@@ -997,7 +997,7 @@
         <v>93.99</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>92.22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>87.71</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>87.64</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>87.44</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>86.59</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>86.07</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>86.05</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>86.04</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>82.57</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>12.0</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>79.63</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>78.1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>77.92</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>76.37</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>18.0</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>75.41</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>75.28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>73.37</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>73.19</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>73.07</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>72.21</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>71.67</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>71.49</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>26.0</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>71.42</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>70.38</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>28.0</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>69.91</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>29.0</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>69.77</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>30.0</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>69.26</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>31.0</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>69.26</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>32.0</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>69.17</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>34.0</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>68.73</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>35.0</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>68.56</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>36.0</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>67.81</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>67.34</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>38.0</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>66.08</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>39.0</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>64.55</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>40.0</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>64.53</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>41.0</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>64.12</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>42.0</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>63.55</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>43.0</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>62.71</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>44.0</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>45.0</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>46.0</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>47.0</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>59.93</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>48.0</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>59.84</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>49.0</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>59.71</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>50.0</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>59.71</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>51.0</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>59.39</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>52.0</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>59.32</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>53.0</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>58.87</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>54.0</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>58.85</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>55.0</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>58.82</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>56.0</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>58.73</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>57.0</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>58.39</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>58.0</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>58.09</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>59.0</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>58.04</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>60.0</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>57.58</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <v>61.0</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>56.74</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>62.0</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>63.0</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>64.0</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>65.0</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>54.08</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>66.0</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>53.21</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>67.0</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>68.0</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>69.0</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>52.47</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>70.0</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>52.02</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>71.0</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>51.99</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <v>72.0</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <v>73.0</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>51.04</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <v>74.0</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>75.0</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>50.49</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <v>76.0</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>49.31</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <v>77.0</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>49.21</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <v>78.0</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>49.19</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <v>79.0</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <v>80.0</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>48.62</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <v>81.0</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>82.0</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>48.09</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>83.0</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>48.0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>84.0</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>48.0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>85.0</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>47.83</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <v>86.0</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>47.82</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <v>87.0</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>88.0</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>47.69</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>89.0</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>90.0</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>47.34</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>91.0</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>46.61</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>92.0</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>45.34</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>93.0</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>45.31</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <v>94.0</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>45.28</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <v>95.0</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1">
         <v>96.0</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <v>97.0</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>44.18</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <v>98.0</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>42.82</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <v>99.0</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>42.64</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1">
         <v>100.0</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>42.17</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1">
         <v>101.0</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>42.16</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1">
         <v>102.0</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>41.53</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1">
         <v>103.0</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>41.27</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1">
         <v>104.0</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>41.19</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1">
         <v>105.0</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>40.12</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1">
         <v>106.0</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1">
         <v>107.0</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>38.22</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1">
         <v>108.0</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1">
         <v>109.0</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>38.03</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1">
         <v>110.0</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>37.79</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1">
         <v>111.0</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1">
         <v>112.0</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>37.46</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1">
         <v>113.0</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>37.45</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1">
         <v>114.0</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>36.91</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1">
         <v>115.0</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>36.91</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1">
         <v>116.0</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>36.24</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1">
         <v>117.0</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>35.92</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1">
         <v>118.0</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>35.69</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1">
         <v>119.0</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>34.73</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1">
         <v>120.0</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>34.58</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1">
         <v>121.0</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>34.35</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1">
         <v>122.0</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>34.3</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1">
         <v>123.0</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>34.08</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1">
         <v>124.0</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1">
         <v>125.0</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>33.74</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1">
         <v>126.0</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>33.29</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1">
         <v>127.0</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>32.95</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1">
         <v>128.0</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>32.69</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1">
         <v>129.0</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1">
         <v>130.0</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>32.21</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1">
         <v>131.0</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>32.05</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1">
         <v>132.0</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1">
         <v>133.0</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1">
         <v>134.0</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1">
         <v>135.0</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1">
         <v>136.0</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>30.87</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1">
         <v>137.0</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>30.44</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1">
         <v>138.0</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1">
         <v>139.0</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1">
         <v>140.0</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1">
         <v>141.0</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1">
         <v>142.0</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>28.99</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1">
         <v>143.0</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1">
         <v>144.0</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>28.08</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1">
         <v>145.0</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1">
         <v>146.0</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1">
         <v>147.0</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1">
         <v>148.0</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>26.35</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1">
         <v>149.0</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1">
         <v>150.0</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1">
         <v>151.0</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>24.84</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1">
         <v>152.0</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>24.52</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1">
         <v>153.0</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1">
         <v>154.0</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>23.16</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1">
         <v>155.0</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>22.71</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1">
         <v>156.0</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1">
         <v>157.0</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>21.11</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1">
         <v>158.0</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1">
         <v>159.0</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1">
         <v>160.0</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>20.58</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1">
         <v>161.0</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1">
         <v>162.0</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1">
         <v>163.0</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>20.28</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1">
         <v>164.0</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1">
         <v>165.0</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>19.56</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1">
         <v>166.0</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>19.31</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1">
         <v>167.0</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>17.9</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1">
         <v>168.0</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>17.67</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1">
         <v>169.0</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1">
         <v>170.0</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1">
         <v>171.0</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>16.4</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1">
         <v>172.0</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1">
         <v>173.0</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1">
         <v>174.0</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1">
         <v>175.0</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1">
         <v>176.0</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1">
         <v>177.0</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1">
         <v>178.0</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1">
         <v>179.0</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1">
         <v>180.0</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1">
         <v>181.0</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1">
         <v>182.0</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>10.03</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1">
         <v>183.0</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1">
         <v>184.0</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1">
         <v>185.0</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>9.71</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1">
         <v>186.0</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1">
         <v>187.0</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1">
         <v>188.0</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1">
         <v>189.0</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>8.97</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1">
         <v>190.0</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1">
         <v>191.0</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1">
         <v>192.0</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>7.01</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1">
         <v>193.0</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1">
         <v>194.0</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1">
         <v>195.0</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1">
         <v>196.0</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1">
         <v>197.0</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1">
         <v>198.0</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1">
         <v>199.0</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1">
         <v>200.0</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1">
         <v>201.0</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1">
         <v>202.0</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1">
         <v>203.0</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1">
         <v>204.0</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>2.47</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1">
         <v>205.0</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1">
         <v>206.0</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1">
         <v>207.0</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1">
         <v>208.0</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1">
         <v>209.0</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1">
         <v>210.0</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1">
         <v>211.0</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1">
         <v>212.0</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1">
         <v>213.0</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1">
         <v>214.0</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1">
         <v>215.0</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1">
         <v>216.0</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1">
         <v>217.0</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1">
         <v>218.0</v>
       </c>
@@ -5337,6 +5337,787 @@
         <v>0.26</v>
       </c>
     </row>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
